--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7760c8217939eec/Documents/UiPath/TestEnvWithManageBranch/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B0DD002-1EA1-4144-85CB-AFA1BB7833CA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -123,6 +123,12 @@
   <si>
     <t>OrchestratorAssetFolder</t>
   </si>
+  <si>
+    <t>Version1</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +191,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,7 +207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -499,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -568,7 +574,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2682,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7760c8217939eec/Documents/UiPath/TestEnvWithManageBranch/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B0DD002-1EA1-4144-85CB-AFA1BB7833CA}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{674A1C30-23FC-4F3A-BC0B-938C89E7C648}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="2370" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>Version2</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -582,7 +588,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7760c8217939eec/Documents/UiPath/TestEnvWithManageBranch/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B0DD002-1EA1-4144-85CB-AFA1BB7833CA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6E2B78BA-D9B4-474B-B2E1-EFCF8057BC45}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="2370" windowWidth="21600" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Version3</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -582,7 +588,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
